--- a/doc/报表标题定义/报表属性定义模板.xlsx
+++ b/doc/报表标题定义/报表属性定义模板.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="业务报表" sheetId="1" r:id="rId1"/>
     <sheet name="数据表" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>测试属性a1
 (sort=1)</t>
@@ -311,12 +312,35 @@
     <t>请求地址：http://127.0.0.1:8080/api/portal/columns?yongHuiReportCustomCode=REP_000001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,7,8,11,12,13,14,29,30,35,37,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,</t>
+  </si>
+  <si>
+    <t>1,44,45,50,51,46,52,53,47,54,55,48,56,57,58,49</t>
+  </si>
+  <si>
+    <t>44,45,50,51,46,52,53,47,54,55,48,56,57,58,49</t>
+  </si>
+  <si>
+    <t>1,2,3,35,4,5,37,7,8,11,12,13,14,29,30,</t>
+  </si>
+  <si>
+    <t>测试属性C
+(sort=3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +393,40 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -605,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -640,6 +698,15 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -713,14 +780,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1182,8 +1283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:D190"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1195,34 +1296,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="47"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" s="12" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="26" t="s">
+      <c r="B2" s="30"/>
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="30"/>
+      <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="32" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1251,7 +1352,7 @@
       <c r="H3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="30"/>
+      <c r="I3" s="33"/>
     </row>
     <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
@@ -1363,1650 +1464,1650 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17" t="s">
+      <c r="F9" s="19"/>
+      <c r="G9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
     </row>
     <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="38" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="22"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="22"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="22"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="22"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="22"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="22"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="22"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="22"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="22"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
+      <c r="A23" s="23"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="22"/>
+      <c r="A26" s="23"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="22"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="22"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
+      <c r="A32" s="23"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="22"/>
+      <c r="A33" s="23"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="22"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="36"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="22"/>
+      <c r="A35" s="23"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
+      <c r="A36" s="23"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="A37" s="23"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="36"/>
+      <c r="E37" s="36"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="22"/>
+      <c r="A38" s="23"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
     </row>
     <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="22"/>
+      <c r="A39" s="23"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="22"/>
+      <c r="A40" s="23"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="21"/>
-      <c r="I41" s="22"/>
+      <c r="A41" s="23"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="36"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="25"/>
     </row>
     <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="22"/>
+      <c r="A42" s="23"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="36"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="25"/>
     </row>
     <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="22"/>
+      <c r="A43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="25"/>
     </row>
     <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="33"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="22"/>
+      <c r="A44" s="23"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="25"/>
     </row>
     <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="22"/>
+      <c r="A45" s="23"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="25"/>
     </row>
     <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="22"/>
+      <c r="A46" s="23"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="25"/>
     </row>
     <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="21"/>
-      <c r="I47" s="22"/>
+      <c r="A47" s="23"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="25"/>
     </row>
     <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="21"/>
-      <c r="I48" s="22"/>
+      <c r="A48" s="23"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="25"/>
     </row>
     <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="22"/>
+      <c r="A49" s="23"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="25"/>
     </row>
     <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="33"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="21"/>
-      <c r="I50" s="22"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="25"/>
     </row>
     <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="22"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="25"/>
     </row>
     <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="21"/>
-      <c r="I52" s="22"/>
+      <c r="A52" s="23"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="25"/>
     </row>
     <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="21"/>
-      <c r="I53" s="22"/>
+      <c r="A53" s="23"/>
+      <c r="B53" s="24"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="36"/>
+      <c r="E53" s="36"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="25"/>
     </row>
     <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="21"/>
-      <c r="I54" s="22"/>
+      <c r="A54" s="23"/>
+      <c r="B54" s="24"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="25"/>
     </row>
     <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="33"/>
-      <c r="E55" s="33"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="21"/>
-      <c r="I55" s="22"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="24"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="36"/>
+      <c r="E55" s="36"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="25"/>
     </row>
     <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="22"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="36"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="25"/>
     </row>
     <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="21"/>
-      <c r="I57" s="22"/>
+      <c r="A57" s="23"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="24"/>
+      <c r="I57" s="25"/>
     </row>
     <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="33"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="22"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="24"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="36"/>
+      <c r="E58" s="36"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="24"/>
+      <c r="I58" s="25"/>
     </row>
     <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="21"/>
-      <c r="I59" s="22"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="36"/>
+      <c r="E59" s="36"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="25"/>
     </row>
     <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="32"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="21"/>
-      <c r="I60" s="22"/>
+      <c r="A60" s="23"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="36"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="25"/>
     </row>
     <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="21"/>
-      <c r="I61" s="22"/>
+      <c r="A61" s="23"/>
+      <c r="B61" s="24"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="25"/>
     </row>
     <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="20"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="32"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="21"/>
-      <c r="I62" s="22"/>
+      <c r="A62" s="23"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="25"/>
     </row>
     <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="34"/>
-      <c r="B63" s="33"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="21"/>
-      <c r="I63" s="22"/>
+      <c r="A63" s="37"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="36"/>
+      <c r="E63" s="36"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="25"/>
     </row>
     <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="34"/>
-      <c r="B64" s="33"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="33"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="22"/>
+      <c r="A64" s="37"/>
+      <c r="B64" s="36"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="25"/>
     </row>
     <row r="65" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="34"/>
-      <c r="B65" s="33"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="21"/>
-      <c r="I65" s="22"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="25"/>
     </row>
     <row r="66" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="34"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="33"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="21"/>
-      <c r="I66" s="22"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="24"/>
+      <c r="I66" s="25"/>
     </row>
     <row r="67" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="34"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="21"/>
-      <c r="I67" s="22"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="24"/>
+      <c r="I67" s="25"/>
     </row>
     <row r="68" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="34"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="24"/>
-      <c r="I68" s="25"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="34"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
-      <c r="F69" s="40"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="43"/>
     </row>
     <row r="70" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="34"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
-      <c r="F70" s="40"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="43"/>
     </row>
     <row r="71" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="34"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
-      <c r="F71" s="40"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="43"/>
     </row>
     <row r="72" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="34"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
-      <c r="F72" s="40"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="43"/>
     </row>
     <row r="73" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="34"/>
-      <c r="B73" s="33"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
-      <c r="F73" s="40"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="43"/>
     </row>
     <row r="74" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="34"/>
-      <c r="B74" s="33"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="33"/>
-      <c r="F74" s="40"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="43"/>
     </row>
     <row r="75" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="34"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
-      <c r="F75" s="40"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="36"/>
+      <c r="E75" s="36"/>
+      <c r="F75" s="43"/>
     </row>
     <row r="76" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="34"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="33"/>
-      <c r="F76" s="40"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="43"/>
     </row>
     <row r="77" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="34"/>
-      <c r="B77" s="33"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
-      <c r="F77" s="40"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="43"/>
     </row>
     <row r="78" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="34"/>
-      <c r="B78" s="33"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
-      <c r="F78" s="40"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="43"/>
     </row>
     <row r="79" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="34"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
-      <c r="F79" s="40"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="36"/>
+      <c r="E79" s="36"/>
+      <c r="F79" s="43"/>
     </row>
     <row r="80" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="34"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="40"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="36"/>
+      <c r="E80" s="36"/>
+      <c r="F80" s="43"/>
     </row>
     <row r="81" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="34"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
-      <c r="F81" s="40"/>
+      <c r="A81" s="37"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="43"/>
     </row>
     <row r="82" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="34"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
-      <c r="F82" s="40"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="36"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="36"/>
+      <c r="E82" s="36"/>
+      <c r="F82" s="43"/>
     </row>
     <row r="83" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="34"/>
-      <c r="B83" s="33"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="40"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="36"/>
+      <c r="E83" s="36"/>
+      <c r="F83" s="43"/>
     </row>
     <row r="84" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="34"/>
-      <c r="B84" s="33"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="40"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="36"/>
+      <c r="E84" s="36"/>
+      <c r="F84" s="43"/>
     </row>
     <row r="85" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="34"/>
-      <c r="B85" s="33"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="40"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="36"/>
+      <c r="E85" s="36"/>
+      <c r="F85" s="43"/>
     </row>
     <row r="86" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="34"/>
-      <c r="B86" s="33"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="40"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="36"/>
+      <c r="E86" s="36"/>
+      <c r="F86" s="43"/>
     </row>
     <row r="87" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="34"/>
-      <c r="B87" s="33"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="40"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="36"/>
+      <c r="E87" s="36"/>
+      <c r="F87" s="43"/>
     </row>
     <row r="88" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="34"/>
-      <c r="B88" s="33"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="40"/>
+      <c r="A88" s="37"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="36"/>
+      <c r="E88" s="36"/>
+      <c r="F88" s="43"/>
     </row>
     <row r="89" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="34"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="40"/>
+      <c r="A89" s="37"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="36"/>
+      <c r="E89" s="36"/>
+      <c r="F89" s="43"/>
     </row>
     <row r="90" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="34"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="40"/>
+      <c r="A90" s="37"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="36"/>
+      <c r="E90" s="36"/>
+      <c r="F90" s="43"/>
     </row>
     <row r="91" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="34"/>
-      <c r="B91" s="33"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="40"/>
+      <c r="A91" s="37"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="36"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="43"/>
     </row>
     <row r="92" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="34"/>
-      <c r="B92" s="33"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="40"/>
+      <c r="A92" s="37"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="36"/>
+      <c r="E92" s="36"/>
+      <c r="F92" s="43"/>
     </row>
     <row r="93" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="34"/>
-      <c r="B93" s="33"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="40"/>
+      <c r="A93" s="37"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="36"/>
+      <c r="E93" s="36"/>
+      <c r="F93" s="43"/>
     </row>
     <row r="94" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="34"/>
-      <c r="B94" s="33"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="40"/>
+      <c r="A94" s="37"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="36"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="43"/>
     </row>
     <row r="95" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="34"/>
-      <c r="B95" s="33"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="33"/>
-      <c r="F95" s="40"/>
+      <c r="A95" s="37"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="43"/>
     </row>
     <row r="96" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="34"/>
-      <c r="B96" s="33"/>
-      <c r="C96" s="35"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="33"/>
-      <c r="F96" s="40"/>
+      <c r="A96" s="37"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="43"/>
     </row>
     <row r="97" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="34"/>
-      <c r="B97" s="33"/>
-      <c r="C97" s="35"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
-      <c r="F97" s="40"/>
+      <c r="A97" s="37"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="43"/>
     </row>
     <row r="98" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="34"/>
-      <c r="B98" s="33"/>
-      <c r="C98" s="35"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="33"/>
-      <c r="F98" s="40"/>
+      <c r="A98" s="37"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="36"/>
+      <c r="F98" s="43"/>
     </row>
     <row r="99" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="34"/>
-      <c r="B99" s="33"/>
-      <c r="C99" s="35"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="33"/>
-      <c r="F99" s="40"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="43"/>
     </row>
     <row r="100" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="34"/>
-      <c r="B100" s="33"/>
-      <c r="C100" s="35"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="33"/>
-      <c r="F100" s="40"/>
+      <c r="A100" s="37"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="43"/>
     </row>
     <row r="101" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="34"/>
-      <c r="B101" s="33"/>
-      <c r="C101" s="35"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="33"/>
-      <c r="F101" s="40"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="36"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="43"/>
     </row>
     <row r="102" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="34"/>
-      <c r="B102" s="33"/>
-      <c r="C102" s="35"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="33"/>
-      <c r="F102" s="40"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="36"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="36"/>
+      <c r="E102" s="36"/>
+      <c r="F102" s="43"/>
     </row>
     <row r="103" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="34"/>
-      <c r="B103" s="33"/>
-      <c r="C103" s="35"/>
-      <c r="D103" s="33"/>
-      <c r="E103" s="33"/>
-      <c r="F103" s="40"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="43"/>
     </row>
     <row r="104" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="34"/>
-      <c r="B104" s="33"/>
-      <c r="C104" s="35"/>
-      <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="40"/>
+      <c r="A104" s="37"/>
+      <c r="B104" s="36"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="43"/>
     </row>
     <row r="105" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="34"/>
-      <c r="B105" s="35"/>
-      <c r="C105" s="35"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="40"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="38"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="43"/>
     </row>
     <row r="106" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="34"/>
-      <c r="B106" s="33"/>
-      <c r="C106" s="35"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="40"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="43"/>
     </row>
     <row r="107" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="34"/>
-      <c r="B107" s="33"/>
-      <c r="C107" s="35"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
-      <c r="F107" s="40"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="36"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="43"/>
     </row>
     <row r="108" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="34"/>
-      <c r="B108" s="33"/>
-      <c r="C108" s="35"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
-      <c r="F108" s="40"/>
+      <c r="A108" s="37"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="36"/>
+      <c r="E108" s="36"/>
+      <c r="F108" s="43"/>
     </row>
     <row r="109" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="34"/>
-      <c r="B109" s="33"/>
-      <c r="C109" s="35"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="40"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="36"/>
+      <c r="E109" s="36"/>
+      <c r="F109" s="43"/>
     </row>
     <row r="110" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="34"/>
-      <c r="B110" s="33"/>
-      <c r="C110" s="35"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="33"/>
-      <c r="F110" s="40"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="36"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="36"/>
+      <c r="E110" s="36"/>
+      <c r="F110" s="43"/>
     </row>
     <row r="111" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="34"/>
-      <c r="B111" s="33"/>
-      <c r="C111" s="35"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="33"/>
-      <c r="F111" s="40"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="36"/>
+      <c r="C111" s="38"/>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="43"/>
     </row>
     <row r="112" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="34"/>
-      <c r="B112" s="33"/>
-      <c r="C112" s="35"/>
-      <c r="D112" s="33"/>
-      <c r="E112" s="33"/>
-      <c r="F112" s="40"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="36"/>
+      <c r="C112" s="38"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="43"/>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="34"/>
-      <c r="B113" s="33"/>
-      <c r="C113" s="35"/>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="40"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="43"/>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="34"/>
-      <c r="B114" s="33"/>
-      <c r="C114" s="35"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="40"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="43"/>
     </row>
     <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="34"/>
-      <c r="B115" s="33"/>
-      <c r="C115" s="35"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="33"/>
-      <c r="F115" s="40"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="38"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="43"/>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="34"/>
-      <c r="B116" s="33"/>
-      <c r="C116" s="35"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="33"/>
-      <c r="F116" s="40"/>
+      <c r="A116" s="37"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="38"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="43"/>
     </row>
     <row r="117" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="34"/>
-      <c r="B117" s="33"/>
-      <c r="C117" s="35"/>
-      <c r="D117" s="33"/>
-      <c r="E117" s="33"/>
-      <c r="F117" s="40"/>
+      <c r="A117" s="37"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="38"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="43"/>
     </row>
     <row r="118" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="34"/>
-      <c r="B118" s="33"/>
-      <c r="C118" s="35"/>
-      <c r="D118" s="33"/>
-      <c r="E118" s="33"/>
-      <c r="F118" s="40"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="38"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="43"/>
     </row>
     <row r="119" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="34"/>
-      <c r="B119" s="33"/>
-      <c r="C119" s="35"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="33"/>
-      <c r="F119" s="40"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="38"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="43"/>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="34"/>
-      <c r="B120" s="33"/>
-      <c r="C120" s="35"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="33"/>
-      <c r="F120" s="40"/>
+      <c r="A120" s="37"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="38"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="36"/>
+      <c r="F120" s="43"/>
     </row>
     <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="34"/>
-      <c r="B121" s="33"/>
-      <c r="C121" s="35"/>
-      <c r="D121" s="33"/>
-      <c r="E121" s="33"/>
-      <c r="F121" s="40"/>
+      <c r="A121" s="37"/>
+      <c r="B121" s="36"/>
+      <c r="C121" s="38"/>
+      <c r="D121" s="36"/>
+      <c r="E121" s="36"/>
+      <c r="F121" s="43"/>
     </row>
     <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="34"/>
-      <c r="B122" s="33"/>
-      <c r="C122" s="35"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
-      <c r="F122" s="40"/>
+      <c r="A122" s="37"/>
+      <c r="B122" s="36"/>
+      <c r="C122" s="38"/>
+      <c r="D122" s="36"/>
+      <c r="E122" s="36"/>
+      <c r="F122" s="43"/>
     </row>
     <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="34"/>
-      <c r="B123" s="33"/>
-      <c r="C123" s="35"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="33"/>
-      <c r="F123" s="40"/>
+      <c r="A123" s="37"/>
+      <c r="B123" s="36"/>
+      <c r="C123" s="38"/>
+      <c r="D123" s="36"/>
+      <c r="E123" s="36"/>
+      <c r="F123" s="43"/>
     </row>
     <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="34"/>
-      <c r="B124" s="35"/>
-      <c r="C124" s="35"/>
-      <c r="D124" s="33"/>
-      <c r="E124" s="33"/>
-      <c r="F124" s="40"/>
+      <c r="A124" s="37"/>
+      <c r="B124" s="38"/>
+      <c r="C124" s="38"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="43"/>
     </row>
     <row r="125" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="34"/>
-      <c r="B125" s="33"/>
-      <c r="C125" s="35"/>
-      <c r="D125" s="33"/>
-      <c r="E125" s="33"/>
-      <c r="F125" s="40"/>
+      <c r="A125" s="37"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="38"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="43"/>
     </row>
     <row r="126" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="34"/>
-      <c r="B126" s="33"/>
-      <c r="C126" s="35"/>
-      <c r="D126" s="33"/>
-      <c r="E126" s="33"/>
-      <c r="F126" s="40"/>
+      <c r="A126" s="37"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="38"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="43"/>
     </row>
     <row r="127" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="34"/>
-      <c r="B127" s="33"/>
-      <c r="C127" s="35"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="33"/>
-      <c r="F127" s="40"/>
+      <c r="A127" s="37"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="38"/>
+      <c r="D127" s="36"/>
+      <c r="E127" s="36"/>
+      <c r="F127" s="43"/>
     </row>
     <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="34"/>
-      <c r="B128" s="33"/>
-      <c r="C128" s="35"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
-      <c r="F128" s="40"/>
+      <c r="A128" s="37"/>
+      <c r="B128" s="36"/>
+      <c r="C128" s="38"/>
+      <c r="D128" s="36"/>
+      <c r="E128" s="36"/>
+      <c r="F128" s="43"/>
     </row>
     <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="34"/>
-      <c r="B129" s="33"/>
-      <c r="C129" s="35"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="33"/>
-      <c r="F129" s="40"/>
+      <c r="A129" s="37"/>
+      <c r="B129" s="36"/>
+      <c r="C129" s="38"/>
+      <c r="D129" s="36"/>
+      <c r="E129" s="36"/>
+      <c r="F129" s="43"/>
     </row>
     <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="34"/>
-      <c r="B130" s="33"/>
-      <c r="C130" s="35"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="33"/>
-      <c r="F130" s="40"/>
+      <c r="A130" s="37"/>
+      <c r="B130" s="36"/>
+      <c r="C130" s="38"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="43"/>
     </row>
     <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="34"/>
-      <c r="B131" s="33"/>
-      <c r="C131" s="35"/>
-      <c r="D131" s="33"/>
-      <c r="E131" s="33"/>
-      <c r="F131" s="40"/>
+      <c r="A131" s="37"/>
+      <c r="B131" s="36"/>
+      <c r="C131" s="38"/>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="43"/>
     </row>
     <row r="132" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="34"/>
-      <c r="B132" s="33"/>
-      <c r="C132" s="35"/>
-      <c r="D132" s="33"/>
-      <c r="E132" s="33"/>
-      <c r="F132" s="40"/>
+      <c r="A132" s="37"/>
+      <c r="B132" s="36"/>
+      <c r="C132" s="38"/>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="43"/>
     </row>
     <row r="133" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="34"/>
-      <c r="B133" s="33"/>
-      <c r="C133" s="35"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="33"/>
-      <c r="F133" s="40"/>
+      <c r="A133" s="37"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="38"/>
+      <c r="D133" s="36"/>
+      <c r="E133" s="36"/>
+      <c r="F133" s="43"/>
     </row>
     <row r="134" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="34"/>
-      <c r="B134" s="33"/>
-      <c r="C134" s="35"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="33"/>
-      <c r="F134" s="40"/>
+      <c r="A134" s="37"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="38"/>
+      <c r="D134" s="36"/>
+      <c r="E134" s="36"/>
+      <c r="F134" s="43"/>
     </row>
     <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="34"/>
-      <c r="B135" s="33"/>
-      <c r="C135" s="35"/>
-      <c r="D135" s="33"/>
-      <c r="E135" s="33"/>
-      <c r="F135" s="40"/>
+      <c r="A135" s="37"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="38"/>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="43"/>
     </row>
     <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="34"/>
-      <c r="B136" s="33"/>
-      <c r="C136" s="35"/>
-      <c r="D136" s="33"/>
-      <c r="E136" s="33"/>
-      <c r="F136" s="40"/>
+      <c r="A136" s="37"/>
+      <c r="B136" s="36"/>
+      <c r="C136" s="38"/>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="43"/>
     </row>
     <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="34"/>
-      <c r="B137" s="33"/>
-      <c r="C137" s="35"/>
-      <c r="D137" s="33"/>
-      <c r="E137" s="33"/>
-      <c r="F137" s="40"/>
+      <c r="A137" s="37"/>
+      <c r="B137" s="36"/>
+      <c r="C137" s="38"/>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="43"/>
     </row>
     <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="34"/>
-      <c r="B138" s="33"/>
-      <c r="C138" s="35"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="33"/>
-      <c r="F138" s="40"/>
+      <c r="A138" s="37"/>
+      <c r="B138" s="36"/>
+      <c r="C138" s="38"/>
+      <c r="D138" s="36"/>
+      <c r="E138" s="36"/>
+      <c r="F138" s="43"/>
     </row>
     <row r="139" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="34"/>
-      <c r="B139" s="33"/>
-      <c r="C139" s="35"/>
-      <c r="D139" s="33"/>
-      <c r="E139" s="33"/>
-      <c r="F139" s="40"/>
+      <c r="A139" s="37"/>
+      <c r="B139" s="36"/>
+      <c r="C139" s="38"/>
+      <c r="D139" s="36"/>
+      <c r="E139" s="36"/>
+      <c r="F139" s="43"/>
     </row>
     <row r="140" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="34"/>
-      <c r="B140" s="33"/>
-      <c r="C140" s="35"/>
-      <c r="D140" s="33"/>
-      <c r="E140" s="33"/>
-      <c r="F140" s="40"/>
+      <c r="A140" s="37"/>
+      <c r="B140" s="36"/>
+      <c r="C140" s="38"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="43"/>
     </row>
     <row r="141" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="34"/>
-      <c r="B141" s="33"/>
-      <c r="C141" s="35"/>
-      <c r="D141" s="33"/>
-      <c r="E141" s="33"/>
-      <c r="F141" s="40"/>
+      <c r="A141" s="37"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="38"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36"/>
+      <c r="F141" s="43"/>
     </row>
     <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="34"/>
-      <c r="B142" s="33"/>
-      <c r="C142" s="35"/>
-      <c r="D142" s="33"/>
-      <c r="E142" s="33"/>
-      <c r="F142" s="40"/>
+      <c r="A142" s="37"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="38"/>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36"/>
+      <c r="F142" s="43"/>
     </row>
     <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="34"/>
-      <c r="B143" s="33"/>
-      <c r="C143" s="35"/>
-      <c r="D143" s="33"/>
-      <c r="E143" s="33"/>
-      <c r="F143" s="40"/>
+      <c r="A143" s="37"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="38"/>
+      <c r="D143" s="36"/>
+      <c r="E143" s="36"/>
+      <c r="F143" s="43"/>
     </row>
     <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="34"/>
-      <c r="B144" s="33"/>
-      <c r="C144" s="35"/>
-      <c r="D144" s="33"/>
-      <c r="E144" s="33"/>
-      <c r="F144" s="40"/>
+      <c r="A144" s="37"/>
+      <c r="B144" s="36"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="36"/>
+      <c r="E144" s="36"/>
+      <c r="F144" s="43"/>
     </row>
     <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="34"/>
-      <c r="B145" s="33"/>
-      <c r="C145" s="35"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="40"/>
+      <c r="A145" s="37"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="38"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="43"/>
     </row>
     <row r="146" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="34"/>
-      <c r="B146" s="33"/>
-      <c r="C146" s="35"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="33"/>
-      <c r="F146" s="40"/>
+      <c r="A146" s="37"/>
+      <c r="B146" s="36"/>
+      <c r="C146" s="38"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36"/>
+      <c r="F146" s="43"/>
     </row>
     <row r="147" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="34"/>
-      <c r="B147" s="33"/>
-      <c r="C147" s="35"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="33"/>
-      <c r="F147" s="40"/>
+      <c r="A147" s="37"/>
+      <c r="B147" s="36"/>
+      <c r="C147" s="38"/>
+      <c r="D147" s="36"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="43"/>
     </row>
     <row r="148" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="34"/>
-      <c r="B148" s="33"/>
-      <c r="C148" s="35"/>
-      <c r="D148" s="33"/>
-      <c r="E148" s="33"/>
-      <c r="F148" s="40"/>
+      <c r="A148" s="37"/>
+      <c r="B148" s="36"/>
+      <c r="C148" s="38"/>
+      <c r="D148" s="36"/>
+      <c r="E148" s="36"/>
+      <c r="F148" s="43"/>
     </row>
     <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="34"/>
-      <c r="B149" s="33"/>
-      <c r="C149" s="35"/>
-      <c r="D149" s="33"/>
-      <c r="E149" s="33"/>
-      <c r="F149" s="40"/>
+      <c r="A149" s="37"/>
+      <c r="B149" s="36"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="36"/>
+      <c r="E149" s="36"/>
+      <c r="F149" s="43"/>
     </row>
     <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="34"/>
-      <c r="B150" s="33"/>
-      <c r="C150" s="35"/>
-      <c r="D150" s="33"/>
-      <c r="E150" s="33"/>
-      <c r="F150" s="40"/>
+      <c r="A150" s="37"/>
+      <c r="B150" s="36"/>
+      <c r="C150" s="38"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="43"/>
     </row>
     <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="34"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="35"/>
-      <c r="D151" s="33"/>
-      <c r="E151" s="33"/>
-      <c r="F151" s="40"/>
+      <c r="A151" s="37"/>
+      <c r="B151" s="36"/>
+      <c r="C151" s="38"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36"/>
+      <c r="F151" s="43"/>
     </row>
     <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="34"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="35"/>
-      <c r="D152" s="33"/>
-      <c r="E152" s="33"/>
-      <c r="F152" s="40"/>
+      <c r="A152" s="37"/>
+      <c r="B152" s="36"/>
+      <c r="C152" s="38"/>
+      <c r="D152" s="36"/>
+      <c r="E152" s="36"/>
+      <c r="F152" s="43"/>
     </row>
     <row r="153" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="34"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="35"/>
-      <c r="D153" s="33"/>
-      <c r="E153" s="33"/>
-      <c r="F153" s="40"/>
+      <c r="A153" s="37"/>
+      <c r="B153" s="36"/>
+      <c r="C153" s="38"/>
+      <c r="D153" s="36"/>
+      <c r="E153" s="36"/>
+      <c r="F153" s="43"/>
     </row>
     <row r="154" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="34"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="35"/>
-      <c r="D154" s="33"/>
-      <c r="E154" s="33"/>
-      <c r="F154" s="40"/>
+      <c r="A154" s="37"/>
+      <c r="B154" s="36"/>
+      <c r="C154" s="38"/>
+      <c r="D154" s="36"/>
+      <c r="E154" s="36"/>
+      <c r="F154" s="43"/>
     </row>
     <row r="155" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="34"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="35"/>
-      <c r="D155" s="33"/>
-      <c r="E155" s="33"/>
-      <c r="F155" s="40"/>
+      <c r="A155" s="37"/>
+      <c r="B155" s="36"/>
+      <c r="C155" s="38"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="43"/>
     </row>
     <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="34"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="35"/>
-      <c r="D156" s="33"/>
-      <c r="E156" s="33"/>
-      <c r="F156" s="40"/>
+      <c r="A156" s="37"/>
+      <c r="B156" s="36"/>
+      <c r="C156" s="38"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36"/>
+      <c r="F156" s="43"/>
     </row>
     <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="34"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="35"/>
-      <c r="D157" s="33"/>
-      <c r="E157" s="33"/>
-      <c r="F157" s="40"/>
+      <c r="A157" s="37"/>
+      <c r="B157" s="36"/>
+      <c r="C157" s="38"/>
+      <c r="D157" s="36"/>
+      <c r="E157" s="36"/>
+      <c r="F157" s="43"/>
     </row>
     <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="34"/>
-      <c r="B158" s="33"/>
-      <c r="C158" s="35"/>
-      <c r="D158" s="33"/>
-      <c r="E158" s="33"/>
-      <c r="F158" s="40"/>
+      <c r="A158" s="37"/>
+      <c r="B158" s="36"/>
+      <c r="C158" s="38"/>
+      <c r="D158" s="36"/>
+      <c r="E158" s="36"/>
+      <c r="F158" s="43"/>
     </row>
     <row r="159" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="34"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="35"/>
-      <c r="D159" s="33"/>
-      <c r="E159" s="33"/>
-      <c r="F159" s="40"/>
+      <c r="A159" s="37"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="38"/>
+      <c r="D159" s="36"/>
+      <c r="E159" s="36"/>
+      <c r="F159" s="43"/>
     </row>
     <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="34"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="35"/>
-      <c r="D160" s="33"/>
-      <c r="E160" s="33"/>
-      <c r="F160" s="40"/>
+      <c r="A160" s="37"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="38"/>
+      <c r="D160" s="36"/>
+      <c r="E160" s="36"/>
+      <c r="F160" s="43"/>
     </row>
     <row r="161" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="34"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="35"/>
-      <c r="D161" s="33"/>
-      <c r="E161" s="33"/>
-      <c r="F161" s="40"/>
+      <c r="A161" s="37"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="38"/>
+      <c r="D161" s="36"/>
+      <c r="E161" s="36"/>
+      <c r="F161" s="43"/>
     </row>
     <row r="162" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="34"/>
-      <c r="B162" s="33"/>
-      <c r="C162" s="35"/>
-      <c r="D162" s="33"/>
-      <c r="E162" s="33"/>
-      <c r="F162" s="40"/>
+      <c r="A162" s="37"/>
+      <c r="B162" s="36"/>
+      <c r="C162" s="38"/>
+      <c r="D162" s="36"/>
+      <c r="E162" s="36"/>
+      <c r="F162" s="43"/>
     </row>
     <row r="163" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="34"/>
-      <c r="B163" s="33"/>
-      <c r="C163" s="35"/>
-      <c r="D163" s="33"/>
-      <c r="E163" s="33"/>
-      <c r="F163" s="40"/>
+      <c r="A163" s="37"/>
+      <c r="B163" s="36"/>
+      <c r="C163" s="38"/>
+      <c r="D163" s="36"/>
+      <c r="E163" s="36"/>
+      <c r="F163" s="43"/>
     </row>
     <row r="164" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="34"/>
-      <c r="B164" s="33"/>
-      <c r="C164" s="35"/>
-      <c r="D164" s="33"/>
-      <c r="E164" s="33"/>
-      <c r="F164" s="40"/>
+      <c r="A164" s="37"/>
+      <c r="B164" s="36"/>
+      <c r="C164" s="38"/>
+      <c r="D164" s="36"/>
+      <c r="E164" s="36"/>
+      <c r="F164" s="43"/>
     </row>
     <row r="165" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="34"/>
-      <c r="B165" s="33"/>
-      <c r="C165" s="35"/>
-      <c r="D165" s="33"/>
-      <c r="E165" s="33"/>
-      <c r="F165" s="40"/>
+      <c r="A165" s="37"/>
+      <c r="B165" s="36"/>
+      <c r="C165" s="38"/>
+      <c r="D165" s="36"/>
+      <c r="E165" s="36"/>
+      <c r="F165" s="43"/>
     </row>
     <row r="166" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="34"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="35"/>
-      <c r="D166" s="33"/>
-      <c r="E166" s="33"/>
-      <c r="F166" s="40"/>
+      <c r="A166" s="37"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="38"/>
+      <c r="D166" s="36"/>
+      <c r="E166" s="36"/>
+      <c r="F166" s="43"/>
     </row>
     <row r="167" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="34"/>
-      <c r="B167" s="33"/>
-      <c r="C167" s="35"/>
-      <c r="D167" s="33"/>
-      <c r="E167" s="33"/>
-      <c r="F167" s="40"/>
+      <c r="A167" s="37"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="38"/>
+      <c r="D167" s="36"/>
+      <c r="E167" s="36"/>
+      <c r="F167" s="43"/>
     </row>
     <row r="168" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="34"/>
-      <c r="B168" s="33"/>
-      <c r="C168" s="35"/>
-      <c r="D168" s="33"/>
-      <c r="E168" s="33"/>
-      <c r="F168" s="40"/>
+      <c r="A168" s="37"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="38"/>
+      <c r="D168" s="36"/>
+      <c r="E168" s="36"/>
+      <c r="F168" s="43"/>
     </row>
     <row r="169" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="34"/>
-      <c r="B169" s="33"/>
-      <c r="C169" s="35"/>
-      <c r="D169" s="33"/>
-      <c r="E169" s="33"/>
-      <c r="F169" s="40"/>
+      <c r="A169" s="37"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="38"/>
+      <c r="D169" s="36"/>
+      <c r="E169" s="36"/>
+      <c r="F169" s="43"/>
     </row>
     <row r="170" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="34"/>
-      <c r="B170" s="33"/>
-      <c r="C170" s="35"/>
-      <c r="D170" s="33"/>
-      <c r="E170" s="33"/>
-      <c r="F170" s="40"/>
+      <c r="A170" s="37"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="38"/>
+      <c r="D170" s="36"/>
+      <c r="E170" s="36"/>
+      <c r="F170" s="43"/>
     </row>
     <row r="171" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="34"/>
-      <c r="B171" s="33"/>
-      <c r="C171" s="35"/>
-      <c r="D171" s="33"/>
-      <c r="E171" s="33"/>
-      <c r="F171" s="40"/>
+      <c r="A171" s="37"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="38"/>
+      <c r="D171" s="36"/>
+      <c r="E171" s="36"/>
+      <c r="F171" s="43"/>
     </row>
     <row r="172" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="34"/>
-      <c r="B172" s="33"/>
-      <c r="C172" s="35"/>
-      <c r="D172" s="33"/>
-      <c r="E172" s="33"/>
-      <c r="F172" s="40"/>
+      <c r="A172" s="37"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="38"/>
+      <c r="D172" s="36"/>
+      <c r="E172" s="36"/>
+      <c r="F172" s="43"/>
     </row>
     <row r="173" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="34"/>
-      <c r="B173" s="33"/>
-      <c r="C173" s="35"/>
-      <c r="D173" s="33"/>
-      <c r="E173" s="33"/>
-      <c r="F173" s="40"/>
+      <c r="A173" s="37"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="38"/>
+      <c r="D173" s="36"/>
+      <c r="E173" s="36"/>
+      <c r="F173" s="43"/>
     </row>
     <row r="174" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="34"/>
-      <c r="B174" s="33"/>
-      <c r="C174" s="35"/>
-      <c r="D174" s="33"/>
-      <c r="E174" s="33"/>
-      <c r="F174" s="40"/>
+      <c r="A174" s="37"/>
+      <c r="B174" s="36"/>
+      <c r="C174" s="38"/>
+      <c r="D174" s="36"/>
+      <c r="E174" s="36"/>
+      <c r="F174" s="43"/>
     </row>
     <row r="175" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="34"/>
-      <c r="B175" s="33"/>
-      <c r="C175" s="35"/>
-      <c r="D175" s="33"/>
-      <c r="E175" s="33"/>
-      <c r="F175" s="40"/>
+      <c r="A175" s="37"/>
+      <c r="B175" s="36"/>
+      <c r="C175" s="38"/>
+      <c r="D175" s="36"/>
+      <c r="E175" s="36"/>
+      <c r="F175" s="43"/>
     </row>
     <row r="176" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="34"/>
-      <c r="B176" s="33"/>
-      <c r="C176" s="35"/>
-      <c r="D176" s="33"/>
-      <c r="E176" s="33"/>
-      <c r="F176" s="40"/>
+      <c r="A176" s="37"/>
+      <c r="B176" s="36"/>
+      <c r="C176" s="38"/>
+      <c r="D176" s="36"/>
+      <c r="E176" s="36"/>
+      <c r="F176" s="43"/>
     </row>
     <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="34"/>
-      <c r="B177" s="33"/>
-      <c r="C177" s="35"/>
-      <c r="D177" s="33"/>
-      <c r="E177" s="33"/>
-      <c r="F177" s="40"/>
+      <c r="A177" s="37"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="38"/>
+      <c r="D177" s="36"/>
+      <c r="E177" s="36"/>
+      <c r="F177" s="43"/>
     </row>
     <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="34"/>
-      <c r="B178" s="33"/>
-      <c r="C178" s="35"/>
-      <c r="D178" s="33"/>
-      <c r="E178" s="33"/>
-      <c r="F178" s="40"/>
+      <c r="A178" s="37"/>
+      <c r="B178" s="36"/>
+      <c r="C178" s="38"/>
+      <c r="D178" s="36"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="43"/>
     </row>
     <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="34"/>
-      <c r="B179" s="33"/>
-      <c r="C179" s="35"/>
-      <c r="D179" s="33"/>
-      <c r="E179" s="33"/>
-      <c r="F179" s="40"/>
+      <c r="A179" s="37"/>
+      <c r="B179" s="36"/>
+      <c r="C179" s="38"/>
+      <c r="D179" s="36"/>
+      <c r="E179" s="36"/>
+      <c r="F179" s="43"/>
     </row>
     <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="34"/>
-      <c r="B180" s="33"/>
-      <c r="C180" s="35"/>
-      <c r="D180" s="33"/>
-      <c r="E180" s="33"/>
-      <c r="F180" s="40"/>
+      <c r="A180" s="37"/>
+      <c r="B180" s="36"/>
+      <c r="C180" s="38"/>
+      <c r="D180" s="36"/>
+      <c r="E180" s="36"/>
+      <c r="F180" s="43"/>
     </row>
     <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="34"/>
-      <c r="B181" s="33"/>
-      <c r="C181" s="35"/>
-      <c r="D181" s="33"/>
-      <c r="E181" s="33"/>
-      <c r="F181" s="40"/>
+      <c r="A181" s="37"/>
+      <c r="B181" s="36"/>
+      <c r="C181" s="38"/>
+      <c r="D181" s="36"/>
+      <c r="E181" s="36"/>
+      <c r="F181" s="43"/>
     </row>
     <row r="182" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="34"/>
-      <c r="B182" s="33"/>
-      <c r="C182" s="35"/>
-      <c r="D182" s="33"/>
-      <c r="E182" s="33"/>
-      <c r="F182" s="40"/>
+      <c r="A182" s="37"/>
+      <c r="B182" s="36"/>
+      <c r="C182" s="38"/>
+      <c r="D182" s="36"/>
+      <c r="E182" s="36"/>
+      <c r="F182" s="43"/>
     </row>
     <row r="183" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="34"/>
-      <c r="B183" s="33"/>
-      <c r="C183" s="35"/>
-      <c r="D183" s="33"/>
-      <c r="E183" s="33"/>
-      <c r="F183" s="40"/>
+      <c r="A183" s="37"/>
+      <c r="B183" s="36"/>
+      <c r="C183" s="38"/>
+      <c r="D183" s="36"/>
+      <c r="E183" s="36"/>
+      <c r="F183" s="43"/>
     </row>
     <row r="184" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="34"/>
-      <c r="B184" s="33"/>
-      <c r="C184" s="35"/>
-      <c r="D184" s="33"/>
-      <c r="E184" s="33"/>
-      <c r="F184" s="40"/>
+      <c r="A184" s="37"/>
+      <c r="B184" s="36"/>
+      <c r="C184" s="38"/>
+      <c r="D184" s="36"/>
+      <c r="E184" s="36"/>
+      <c r="F184" s="43"/>
     </row>
     <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="34"/>
-      <c r="B185" s="33"/>
-      <c r="C185" s="35"/>
-      <c r="D185" s="33"/>
-      <c r="E185" s="33"/>
-      <c r="F185" s="40"/>
+      <c r="A185" s="37"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="38"/>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="43"/>
     </row>
     <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="34"/>
-      <c r="B186" s="33"/>
-      <c r="C186" s="35"/>
-      <c r="D186" s="33"/>
-      <c r="E186" s="33"/>
-      <c r="F186" s="40"/>
+      <c r="A186" s="37"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="38"/>
+      <c r="D186" s="36"/>
+      <c r="E186" s="36"/>
+      <c r="F186" s="43"/>
     </row>
     <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="34"/>
-      <c r="B187" s="33"/>
-      <c r="C187" s="35"/>
-      <c r="D187" s="33"/>
-      <c r="E187" s="33"/>
-      <c r="F187" s="40"/>
+      <c r="A187" s="37"/>
+      <c r="B187" s="36"/>
+      <c r="C187" s="38"/>
+      <c r="D187" s="36"/>
+      <c r="E187" s="36"/>
+      <c r="F187" s="43"/>
     </row>
     <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="34"/>
-      <c r="B188" s="33"/>
-      <c r="C188" s="35"/>
-      <c r="D188" s="33"/>
-      <c r="E188" s="33"/>
-      <c r="F188" s="40"/>
+      <c r="A188" s="37"/>
+      <c r="B188" s="36"/>
+      <c r="C188" s="38"/>
+      <c r="D188" s="36"/>
+      <c r="E188" s="36"/>
+      <c r="F188" s="43"/>
     </row>
     <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="34"/>
-      <c r="B189" s="33"/>
-      <c r="C189" s="35"/>
-      <c r="D189" s="33"/>
-      <c r="E189" s="33"/>
-      <c r="F189" s="40"/>
+      <c r="A189" s="37"/>
+      <c r="B189" s="36"/>
+      <c r="C189" s="38"/>
+      <c r="D189" s="36"/>
+      <c r="E189" s="36"/>
+      <c r="F189" s="43"/>
     </row>
     <row r="190" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="36"/>
-      <c r="B190" s="37"/>
-      <c r="C190" s="37"/>
-      <c r="D190" s="37"/>
-      <c r="E190" s="37"/>
-      <c r="F190" s="41"/>
+      <c r="A190" s="39"/>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="40"/>
+      <c r="F190" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3048,12 +3149,280 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="16384" width="12.625" style="58"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="53" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="51"/>
+      <c r="D1" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="51"/>
+    </row>
+    <row r="2" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="54"/>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="64"/>
+      <c r="K2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="33"/>
+      <c r="I3" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="62">
+        <v>42346.44736111111</v>
+      </c>
+      <c r="E1" s="62">
+        <v>42352.453576388885</v>
+      </c>
+      <c r="F1" s="62">
+        <v>42352.453576388885</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="62">
+        <v>42859.578009259261</v>
+      </c>
+      <c r="E2" s="62">
+        <v>42859.578009259261</v>
+      </c>
+      <c r="F2" s="62">
+        <v>42859.578009259261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="62">
+        <v>42859.73265046296</v>
+      </c>
+      <c r="E3" s="62">
+        <v>42859.73265046296</v>
+      </c>
+      <c r="F3" s="62">
+        <v>42859.73265046296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>53</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="62">
+        <v>42864.443703703706</v>
+      </c>
+      <c r="E4" s="62">
+        <v>42864.443703703706</v>
+      </c>
+      <c r="F4" s="62">
+        <v>42864.443703703706</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="62">
+        <v>42865.646307870367</v>
+      </c>
+      <c r="E5" s="62">
+        <v>42865.646307870367</v>
+      </c>
+      <c r="F5" s="62">
+        <v>42865.646307870367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="62">
+        <v>42865.651990740742</v>
+      </c>
+      <c r="E6" s="62">
+        <v>42865.651990740742</v>
+      </c>
+      <c r="F6" s="62">
+        <v>42865.651990740742</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="62">
+        <v>42865.670787037037</v>
+      </c>
+      <c r="E7" s="62">
+        <v>42865.670787037037</v>
+      </c>
+      <c r="F7" s="62">
+        <v>42865.670787037037</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="62">
+        <v>42866.418912037036</v>
+      </c>
+      <c r="E8" s="62">
+        <v>42866.418912037036</v>
+      </c>
+      <c r="F8" s="62">
+        <v>42866.418912037036</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
